--- a/archivos/Statement_1.xlsx
+++ b/archivos/Statement_1.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,10 +1661,10 @@
         <v>1.3324</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.3124</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.3724000000000001</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>

--- a/archivos/Statement_1.xlsx
+++ b/archivos/Statement_1.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
